--- a/classification/droptc/sentence/modern-bert/unfreeze/37622020/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/unfreeze/37622020/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9984654188156128</v>
+        <v>0.9999673366546631</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9992075562477112</v>
+        <v>0.9999027252197266</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9426605701446533</v>
+        <v>0.9547482132911682</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9996044039726257</v>
+        <v>0.9940093755722046</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9981572031974792</v>
+        <v>0.9999456405639648</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9993101358413696</v>
+        <v>0.9303794503211975</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9904588460922241</v>
+        <v>0.9999865293502808</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9989598989486694</v>
+        <v>0.9999843835830688</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9992402791976929</v>
+        <v>0.9999865293502808</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9983823299407959</v>
+        <v>0.9947421550750732</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9987990856170654</v>
+        <v>0.9999954700469971</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9989952445030212</v>
+        <v>0.999690055847168</v>
       </c>
     </row>
     <row r="14">
@@ -819,14 +819,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8136402368545532</v>
+        <v>0.9999880790710449</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7236912250518799</v>
+        <v>0.9992988109588623</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5477186441421509</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9927318692207336</v>
+        <v>0.9999712705612183</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.994486391544342</v>
+        <v>0.9393941760063171</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9989952445030212</v>
+        <v>0.9999909400939941</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9874568581581116</v>
+        <v>0.9962978959083557</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.994670569896698</v>
+        <v>0.9999701976776123</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9927096366882324</v>
+        <v>0.9999858140945435</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9927096366882324</v>
+        <v>0.9999749660491943</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9990413784980774</v>
+        <v>0.9999842643737793</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9830949902534485</v>
+        <v>0.8390875458717346</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7535890936851501</v>
+        <v>0.9951504468917847</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9920172691345215</v>
+        <v>0.9999799728393555</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9995211362838745</v>
+        <v>0.9999027252197266</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9980012774467468</v>
+        <v>0.9999759197235107</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9976678490638733</v>
+        <v>0.999942421913147</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9981709718704224</v>
+        <v>0.9998548030853271</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9991616010665894</v>
+        <v>0.9999746084213257</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9993873834609985</v>
+        <v>0.9999233484268188</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9993096590042114</v>
+        <v>0.9997813105583191</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9992781281471252</v>
+        <v>0.9995412826538086</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5472890138626099</v>
+        <v>0.9999735355377197</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9996629953384399</v>
+        <v>0.9997816681861877</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9976632595062256</v>
+        <v>0.9999868869781494</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.999414324760437</v>
+        <v>0.9995436072349548</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9766536355018616</v>
+        <v>0.3592579960823059</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.98703533411026</v>
+        <v>0.9999935626983643</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9620554447174072</v>
+        <v>0.968609631061554</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9918067455291748</v>
+        <v>0.9980939030647278</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9991328120231628</v>
+        <v>0.9966957569122314</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.999484658241272</v>
+        <v>0.9997182488441467</v>
       </c>
     </row>
     <row r="46">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1719,10 +1719,10 @@
         </is>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9124026298522949</v>
+        <v>0.9844260215759277</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7682520747184753</v>
+        <v>0.9457343816757202</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9848920106887817</v>
+        <v>0.9994907379150391</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9994053840637207</v>
+        <v>0.999997615814209</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6621842980384827</v>
+        <v>0.9989708662033081</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9913459420204163</v>
+        <v>0.9684258103370667</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9991292357444763</v>
+        <v>0.9990284442901611</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9994787573814392</v>
+        <v>0.9989708662033081</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9996088147163391</v>
+        <v>0.9973946809768677</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9797859787940979</v>
+        <v>0.9999470710754395</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9993005990982056</v>
+        <v>0.9999934434890747</v>
       </c>
     </row>
     <row r="57">
@@ -2023,14 +2023,14 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9076186418533325</v>
+        <v>0.9999966621398926</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8935547471046448</v>
+        <v>0.9994351267814636</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8958522081375122</v>
+        <v>0.9999690055847168</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9989952445030212</v>
+        <v>0.9999808073043823</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9973304271697998</v>
+        <v>0.9999921321868896</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9984757304191589</v>
+        <v>0.9993507266044617</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9985589385032654</v>
+        <v>0.9991266131401062</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9987989664077759</v>
+        <v>0.9962891340255737</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9989666938781738</v>
+        <v>0.999653697013855</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9905791878700256</v>
+        <v>0.999653697013855</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.992519736289978</v>
+        <v>0.9989030361175537</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9214339256286621</v>
+        <v>0.999653697013855</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.984264075756073</v>
+        <v>0.9998461008071899</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9989994168281555</v>
+        <v>0.9999644756317139</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9993792772293091</v>
+        <v>0.9961656332015991</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9874568581581116</v>
+        <v>0.9998894929885864</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9989952445030212</v>
+        <v>0.9996775388717651</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9927096366882324</v>
+        <v>0.9344480037689209</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9988077878952026</v>
+        <v>0.9999697208404541</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9991911053657532</v>
+        <v>0.9996775388717651</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9995909333229065</v>
+        <v>0.9999288320541382</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9821709394454956</v>
+        <v>0.9996775388717651</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9985976815223694</v>
+        <v>0.9999797344207764</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.999187171459198</v>
+        <v>0.9992163181304932</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9991012811660767</v>
+        <v>0.999909520149231</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9985345602035522</v>
+        <v>0.9996628761291504</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9989952445030212</v>
+        <v>0.9999587535858154</v>
       </c>
     </row>
     <row r="84">
@@ -2774,19 +2774,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.994486391544342</v>
+        <v>0.9999587535858154</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9934585690498352</v>
+        <v>0.9999960660934448</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.999600350856781</v>
+        <v>0.9999001026153564</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9984845519065857</v>
+        <v>0.9999806880950928</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9992282390594482</v>
+        <v>0.9997668862342834</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9994737505912781</v>
+        <v>0.9999300241470337</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3970586955547333</v>
+        <v>0.9999909400939941</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9995353221893311</v>
+        <v>0.9999905824661255</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9989952445030212</v>
+        <v>0.9999903440475464</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9953635931015015</v>
+        <v>0.9999899864196777</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9874568581581116</v>
+        <v>0.9999896287918091</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9988428354263306</v>
+        <v>0.9999897480010986</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9990713596343994</v>
+        <v>0.9999911785125732</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9994352459907532</v>
+        <v>0.9986473917961121</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9937995076179504</v>
+        <v>0.9999964237213135</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.967205286026001</v>
+        <v>0.9999300241470337</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9830830097198486</v>
+        <v>0.9999788999557495</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8558910489082336</v>
+        <v>0.9999860525131226</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9983083009719849</v>
+        <v>0.8679214119911194</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9991511106491089</v>
+        <v>0.9999681711196899</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9986304044723511</v>
+        <v>0.9999630451202393</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9989952445030212</v>
+        <v>0.9998699426651001</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9994878768920898</v>
+        <v>0.9999853372573853</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.967205286026001</v>
+        <v>0.9989321827888489</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9988402724266052</v>
+        <v>0.999182403087616</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9993312358856201</v>
+        <v>0.999982476234436</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3177634179592133</v>
+        <v>0.9999027252197266</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9982419013977051</v>
+        <v>0.9999390840530396</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9981794357299805</v>
+        <v>0.999843955039978</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9119264483451843</v>
+        <v>0.999859094619751</v>
       </c>
     </row>
     <row r="114">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.466626763343811</v>
+        <v>0.9999872446060181</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9509648084640503</v>
+        <v>0.9997829794883728</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8612950444221497</v>
+        <v>0.9730542302131653</v>
       </c>
     </row>
     <row r="117">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="E117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9947423934936523</v>
+        <v>0.9999185800552368</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7421587705612183</v>
+        <v>0.8029037714004517</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8356360793113708</v>
+        <v>0.9721884727478027</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9993680119514465</v>
+        <v>0.9999027252197266</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9908580183982849</v>
+        <v>0.9996108412742615</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.999292254447937</v>
+        <v>0.9999974966049194</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9994595646858215</v>
+        <v>0.9996108412742615</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9993805885314941</v>
+        <v>0.9999974966049194</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9795553088188171</v>
+        <v>0.9996108412742615</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9938272833824158</v>
+        <v>0.9999960660934448</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9979828596115112</v>
+        <v>0.7024343609809875</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9989952445030212</v>
+        <v>0.9999027252197266</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9915515184402466</v>
+        <v>0.9274489879608154</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E130" t="b">
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9884164333343506</v>
+        <v>0.891035258769989</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.975225031375885</v>
+        <v>0.9999024868011475</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.998643696308136</v>
+        <v>0.7480331659317017</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9917416572570801</v>
+        <v>0.999982476234436</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9818920493125916</v>
+        <v>0.7130225300788879</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9958158135414124</v>
+        <v>0.9999287128448486</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9989952445030212</v>
+        <v>0.9999731779098511</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9978150129318237</v>
+        <v>0.9999686479568481</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.761702835559845</v>
+        <v>0.9999377727508545</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9898571968078613</v>
+        <v>0.9999802112579346</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.8307254910469055</v>
+        <v>0.9999563694000244</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9892674088478088</v>
+        <v>0.99983811378479</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.6512235999107361</v>
+        <v>0.9999027252197266</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9973438382148743</v>
+        <v>0.9985449314117432</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.8466470837593079</v>
+        <v>0.9999923706054688</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9879670739173889</v>
+        <v>0.9985449314117432</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9994713664054871</v>
+        <v>0.9999345541000366</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9934607744216919</v>
+        <v>0.9998461008071899</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.995918333530426</v>
+        <v>0.9999504089355469</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.6997339129447937</v>
+        <v>0.9994282126426697</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9918510317802429</v>
+        <v>0.8790150880813599</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8079095482826233</v>
+        <v>0.9999027252197266</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9990406632423401</v>
+        <v>0.977231502532959</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9994671940803528</v>
+        <v>0.9999905824661255</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9624297618865967</v>
+        <v>0.999776303768158</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9989181756973267</v>
+        <v>0.9999887943267822</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9980632662773132</v>
+        <v>0.9996320009231567</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9991329312324524</v>
+        <v>0.9999920129776001</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9926282167434692</v>
+        <v>0.9993401169776917</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.985444962978363</v>
+        <v>0.9999933242797852</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9990805387496948</v>
+        <v>0.9999387264251709</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9893693923950195</v>
+        <v>0.9999786615371704</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9248718619346619</v>
+        <v>0.9999953508377075</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9993206262588501</v>
+        <v>0.9999655485153198</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9454719424247742</v>
+        <v>0.9992389678955078</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9893760681152344</v>
+        <v>0.9999961853027344</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.999187171459198</v>
+        <v>0.9937654733657837</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9993621706962585</v>
+        <v>0.9994677901268005</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9985266923904419</v>
+        <v>0.9821012616157532</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9992782473564148</v>
+        <v>0.9999027252197266</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9905624985694885</v>
+        <v>0.9994677901268005</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9908580183982849</v>
+        <v>0.9926193356513977</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9904588460922241</v>
+        <v>0.9999027252197266</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9987964630126953</v>
+        <v>0.9999868869781494</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9877288341522217</v>
+        <v>0.9999667406082153</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9991511106491089</v>
+        <v>0.9999868869781494</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9991645812988281</v>
+        <v>0.9999865293502808</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9994484782218933</v>
+        <v>0.9999667406082153</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9818283915519714</v>
+        <v>0.9999901056289673</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9987810254096985</v>
+        <v>0.9999566078186035</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9983859062194824</v>
+        <v>0.9999599456787109</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9991627931594849</v>
+        <v>0.9999738931655884</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.987967312335968</v>
+        <v>0.9999425411224365</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9994811415672302</v>
+        <v>0.9997995495796204</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9994939565658569</v>
+        <v>0.999992847442627</v>
       </c>
     </row>
     <row r="185">
@@ -5602,19 +5602,19 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.975305438041687</v>
+        <v>0.9999948740005493</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.994486391544342</v>
+        <v>0.999994158744812</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9994033575057983</v>
+        <v>0.9999781847000122</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9986304044723511</v>
+        <v>0.9999815225601196</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9990546107292175</v>
+        <v>0.9999904632568359</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9919217824935913</v>
+        <v>0.9999903440475464</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9994863271713257</v>
+        <v>0.5307348370552063</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9990406632423401</v>
+        <v>0.9999817609786987</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9976106882095337</v>
+        <v>0.9999191761016846</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9925051927566528</v>
+        <v>0.9995860457420349</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9990880489349365</v>
+        <v>0.9992191791534424</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9996850490570068</v>
+        <v>0.9999933242797852</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9976330995559692</v>
+        <v>0.9999880790710449</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9995397329330444</v>
+        <v>0.9999897480010986</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9873217940330505</v>
+        <v>0.9999693632125854</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.4721343219280243</v>
+        <v>0.999377965927124</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.6927512288093567</v>
+        <v>0.9999823570251465</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9991053938865662</v>
+        <v>0.9999874830245972</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9821709394454956</v>
+        <v>0.998030960559845</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9680737853050232</v>
+        <v>0.9993103742599487</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9995492100715637</v>
+        <v>0.9998553991317749</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9890096783638</v>
+        <v>0.9999507665634155</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9993703961372375</v>
+        <v>0.9981145858764648</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9994352459907532</v>
+        <v>0.9994149208068848</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9994906187057495</v>
+        <v>0.994657039642334</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9961452484130859</v>
+        <v>0.9999469518661499</v>
       </c>
     </row>
   </sheetData>
